--- a/p_arrs/p_arr_10_row_20_10_5_col_2_lp_3_sym.xlsx
+++ b/p_arrs/p_arr_10_row_20_10_5_col_2_lp_3_sym.xlsx
@@ -4536,7 +4536,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -4544,7 +4544,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -4552,7 +4552,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -4560,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -4616,7 +4616,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4688,7 +4688,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
@@ -4696,7 +4696,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -4704,7 +4704,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26">
@@ -4712,7 +4712,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
@@ -4720,7 +4720,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
@@ -4728,7 +4728,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29">
@@ -4736,7 +4736,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
@@ -4744,7 +4744,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
@@ -4752,7 +4752,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
@@ -4856,7 +4856,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45">
@@ -4864,7 +4864,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
@@ -4872,7 +4872,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
@@ -4880,7 +4880,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49">
@@ -4896,7 +4896,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50">
@@ -4904,7 +4904,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
@@ -4912,7 +4912,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52">
@@ -4920,7 +4920,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="53">
@@ -4928,7 +4928,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="54">
@@ -5032,7 +5032,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="67">
@@ -5040,7 +5040,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="68">
@@ -5064,7 +5064,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="71">
@@ -5072,7 +5072,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72">
@@ -5080,7 +5080,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="73">
@@ -5088,7 +5088,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="74">
@@ -5144,7 +5144,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5152,7 +5152,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5192,7 +5192,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5200,7 +5200,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5216,7 +5216,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="90">
@@ -5224,7 +5224,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="91">
@@ -5232,7 +5232,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="92">
@@ -5240,7 +5240,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="93">
@@ -5248,7 +5248,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="94">
@@ -5256,7 +5256,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95">
@@ -5264,7 +5264,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96">
@@ -5272,7 +5272,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="97">
@@ -5280,7 +5280,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="98">
@@ -5400,7 +5400,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="113">
@@ -5408,7 +5408,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="114">
@@ -5416,7 +5416,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="115">
@@ -5424,7 +5424,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="116">
@@ -5432,7 +5432,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="117">
@@ -5440,7 +5440,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="118">
@@ -5448,7 +5448,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="119">
@@ -5576,7 +5576,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5584,7 +5584,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5600,7 +5600,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="138">
@@ -5624,7 +5624,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5632,7 +5632,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5672,7 +5672,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5680,7 +5680,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -5688,7 +5688,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5720,7 +5720,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5728,7 +5728,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -5736,7 +5736,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -5776,7 +5776,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6104,7 +6104,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -6112,7 +6112,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -6120,7 +6120,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -6152,7 +6152,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -6160,7 +6160,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -6168,7 +6168,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -6200,7 +6200,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -6208,7 +6208,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -6216,7 +6216,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -6248,7 +6248,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -6256,7 +6256,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6264,7 +6264,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -6296,7 +6296,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -6304,7 +6304,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -6312,7 +6312,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6360,7 +6360,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -6368,7 +6368,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="234">
@@ -6376,7 +6376,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="235">
@@ -6384,7 +6384,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="236">
@@ -6392,7 +6392,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="237">
@@ -6400,7 +6400,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="238">
@@ -6408,7 +6408,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="239">
@@ -6416,7 +6416,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="240">
@@ -6424,7 +6424,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="241">
@@ -6544,7 +6544,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="256">
@@ -6552,7 +6552,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="257">
@@ -6560,7 +6560,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="258">
@@ -6568,7 +6568,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="259">
@@ -6576,7 +6576,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="260">
@@ -6584,7 +6584,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="261">
@@ -6592,7 +6592,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="262">
@@ -6600,7 +6600,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="263">
@@ -6608,7 +6608,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="264">
@@ -6632,7 +6632,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -6640,7 +6640,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -6648,7 +6648,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -6680,7 +6680,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -6688,7 +6688,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -6696,7 +6696,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6712,7 +6712,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="277">
@@ -6720,7 +6720,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="278">
@@ -6760,7 +6760,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="283">
@@ -6768,7 +6768,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="284">
@@ -6800,7 +6800,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6824,7 +6824,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -6832,7 +6832,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -6840,7 +6840,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -6848,7 +6848,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6896,7 +6896,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="300">
@@ -6904,7 +6904,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="301">
@@ -6912,7 +6912,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="302">
@@ -6920,7 +6920,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="303">
@@ -6928,7 +6928,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="304">
@@ -6936,7 +6936,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="305">
@@ -6944,7 +6944,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="306">
@@ -6952,7 +6952,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="307">
@@ -6960,7 +6960,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="308">
@@ -6968,7 +6968,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="309">
@@ -7056,7 +7056,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="320">
@@ -7064,7 +7064,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="321">
@@ -7072,7 +7072,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="322">
@@ -7080,7 +7080,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="323">
@@ -7088,7 +7088,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="324">
@@ -7096,7 +7096,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="325">
@@ -7104,7 +7104,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="326">
@@ -7112,7 +7112,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="327">
@@ -7120,7 +7120,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="328">
@@ -7128,7 +7128,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="329">
@@ -7136,7 +7136,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="330">
@@ -7144,7 +7144,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="331">
@@ -7160,7 +7160,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7168,7 +7168,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -7176,7 +7176,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7208,7 +7208,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -7216,7 +7216,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -7224,7 +7224,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -7240,7 +7240,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="343">
@@ -7248,7 +7248,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="344">
@@ -7288,7 +7288,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="349">
@@ -7296,7 +7296,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="350">
@@ -7328,7 +7328,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -7352,7 +7352,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -7360,7 +7360,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -7368,7 +7368,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -7376,7 +7376,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -7400,7 +7400,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -7408,7 +7408,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -7432,7 +7432,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="367">
@@ -7440,7 +7440,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="368">
@@ -7448,7 +7448,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="369">
@@ -7472,7 +7472,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="372">
@@ -7480,7 +7480,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="373">
@@ -7488,7 +7488,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="374">
@@ -7608,7 +7608,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="389">
@@ -7616,7 +7616,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="390">
@@ -7624,7 +7624,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="391">
@@ -7632,7 +7632,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="392">
@@ -7640,7 +7640,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="393">
@@ -7648,7 +7648,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="394">
@@ -7656,7 +7656,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="395">
@@ -7688,7 +7688,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -7696,7 +7696,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -7704,7 +7704,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -7736,7 +7736,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -7744,7 +7744,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -7752,7 +7752,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -7760,7 +7760,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -7784,7 +7784,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -7792,7 +7792,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -7800,7 +7800,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -7808,7 +7808,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -7832,7 +7832,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -7840,7 +7840,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -7848,7 +7848,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -7856,7 +7856,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -7864,7 +7864,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -7880,7 +7880,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -7888,7 +7888,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -7896,7 +7896,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -7904,7 +7904,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -7912,7 +7912,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -7928,7 +7928,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -7936,7 +7936,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -7944,7 +7944,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -7952,7 +7952,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -7960,7 +7960,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -7984,7 +7984,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -7992,7 +7992,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -8000,7 +8000,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -8040,7 +8040,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -8224,7 +8224,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -8240,7 +8240,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="468">
@@ -8248,7 +8248,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="469">
@@ -8256,7 +8256,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="470">
@@ -8272,7 +8272,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -8280,7 +8280,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -8288,7 +8288,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -8312,7 +8312,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -8320,7 +8320,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -8328,7 +8328,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -8336,7 +8336,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -8360,7 +8360,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -8368,7 +8368,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -8376,7 +8376,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -8384,7 +8384,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -8392,7 +8392,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -8448,7 +8448,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="494">
@@ -8472,7 +8472,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -8480,7 +8480,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -8488,7 +8488,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -8512,7 +8512,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -8520,7 +8520,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -8528,7 +8528,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -8536,7 +8536,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -8584,7 +8584,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="511">
@@ -8592,7 +8592,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="512">
@@ -8600,7 +8600,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="513">
@@ -8608,7 +8608,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="514">
@@ -8616,7 +8616,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="515">
@@ -8624,7 +8624,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="516">
@@ -8632,7 +8632,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="517">
@@ -8640,7 +8640,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="518">
@@ -8648,7 +8648,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="519">
@@ -8736,7 +8736,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="530">
@@ -8744,7 +8744,7 @@
         <v>530</v>
       </c>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="531">
@@ -8752,7 +8752,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="532">
@@ -8760,7 +8760,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="533">
@@ -8768,7 +8768,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="534">
@@ -8776,7 +8776,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="535">
@@ -8784,7 +8784,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="536">
@@ -8824,7 +8824,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="541">
@@ -8840,7 +8840,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -8848,7 +8848,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -8856,7 +8856,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -8864,7 +8864,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -8888,7 +8888,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -8896,7 +8896,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -8904,7 +8904,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -8928,7 +8928,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="554">
@@ -8976,7 +8976,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="560">
@@ -9008,7 +9008,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -9016,7 +9016,7 @@
         <v>564</v>
       </c>
       <c r="B564" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -9040,7 +9040,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -9048,7 +9048,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -9056,7 +9056,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -9064,7 +9064,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -9080,7 +9080,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="573">
@@ -9120,7 +9120,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="578">
@@ -9128,7 +9128,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="579">
@@ -9136,7 +9136,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="580">
@@ -9160,7 +9160,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="583">
@@ -9168,7 +9168,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="584">
@@ -9176,7 +9176,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="585">
@@ -9264,7 +9264,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="596">
@@ -9272,7 +9272,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="597">
@@ -9280,7 +9280,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="598">
@@ -9288,7 +9288,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="599">
@@ -9296,7 +9296,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="600">
@@ -9304,7 +9304,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="601">
@@ -9312,7 +9312,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="602">
@@ -9320,7 +9320,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="603">
@@ -9344,7 +9344,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="606">
@@ -9352,7 +9352,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="607">
@@ -9368,7 +9368,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
@@ -9376,7 +9376,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -9384,7 +9384,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -9392,7 +9392,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -9416,7 +9416,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -9424,7 +9424,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -9432,7 +9432,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -9456,7 +9456,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="620">
@@ -9504,7 +9504,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="626">
@@ -9528,7 +9528,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -9536,7 +9536,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -9544,7 +9544,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -9552,7 +9552,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -9560,7 +9560,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -9568,7 +9568,7 @@
         <v>633</v>
       </c>
       <c r="B633" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -9576,7 +9576,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -9584,7 +9584,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -9592,7 +9592,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -9600,7 +9600,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -9616,7 +9616,7 @@
         <v>639</v>
       </c>
       <c r="B639" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -9648,7 +9648,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="644">
@@ -9656,7 +9656,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="645">
@@ -9664,7 +9664,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="646">
@@ -9824,7 +9824,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="666">
@@ -9832,7 +9832,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="667">
@@ -9840,7 +9840,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="668">
@@ -9864,7 +9864,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -9904,7 +9904,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -9912,7 +9912,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -9920,7 +9920,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -9944,7 +9944,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -9952,7 +9952,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -9960,7 +9960,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -9968,7 +9968,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -9976,7 +9976,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -9992,7 +9992,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -10000,7 +10000,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -10008,7 +10008,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -10016,7 +10016,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -10024,7 +10024,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -10040,7 +10040,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -10048,7 +10048,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -10056,7 +10056,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -10064,7 +10064,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -10072,7 +10072,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -10080,7 +10080,7 @@
         <v>697</v>
       </c>
       <c r="B697" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -10096,7 +10096,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -10104,7 +10104,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -10112,7 +10112,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -10120,7 +10120,7 @@
         <v>702</v>
       </c>
       <c r="B702" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -10128,7 +10128,7 @@
         <v>703</v>
       </c>
       <c r="B703" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -10144,7 +10144,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -10152,7 +10152,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -10160,7 +10160,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -10168,7 +10168,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -10176,7 +10176,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -10200,7 +10200,7 @@
         <v>712</v>
       </c>
       <c r="B712" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -10208,7 +10208,7 @@
         <v>713</v>
       </c>
       <c r="B713" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -10216,7 +10216,7 @@
         <v>714</v>
       </c>
       <c r="B714" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -10256,7 +10256,7 @@
         <v>719</v>
       </c>
       <c r="B719" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -10280,7 +10280,7 @@
         <v>722</v>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="723">
@@ -10288,7 +10288,7 @@
         <v>723</v>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="724">
@@ -10296,7 +10296,7 @@
         <v>724</v>
       </c>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="725">
@@ -10456,7 +10456,7 @@
         <v>744</v>
       </c>
       <c r="B744" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="745">
@@ -10464,7 +10464,7 @@
         <v>745</v>
       </c>
       <c r="B745" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="746">
@@ -10472,7 +10472,7 @@
         <v>746</v>
       </c>
       <c r="B746" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="747">
@@ -10504,7 +10504,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -10520,7 +10520,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -10528,7 +10528,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -10536,7 +10536,7 @@
         <v>754</v>
       </c>
       <c r="B754" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -10544,7 +10544,7 @@
         <v>755</v>
       </c>
       <c r="B755" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756">
@@ -10552,7 +10552,7 @@
         <v>756</v>
       </c>
       <c r="B756" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -10560,7 +10560,7 @@
         <v>757</v>
       </c>
       <c r="B757" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -10568,7 +10568,7 @@
         <v>758</v>
       </c>
       <c r="B758" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -10576,7 +10576,7 @@
         <v>759</v>
       </c>
       <c r="B759" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -10584,7 +10584,7 @@
         <v>760</v>
       </c>
       <c r="B760" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -10592,7 +10592,7 @@
         <v>761</v>
       </c>
       <c r="B761" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -10616,7 +10616,7 @@
         <v>764</v>
       </c>
       <c r="B764" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="765">
@@ -10664,7 +10664,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="771">
@@ -10688,7 +10688,7 @@
         <v>773</v>
       </c>
       <c r="B773" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -10696,7 +10696,7 @@
         <v>774</v>
       </c>
       <c r="B774" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -10704,7 +10704,7 @@
         <v>775</v>
       </c>
       <c r="B775" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -10728,7 +10728,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -10736,7 +10736,7 @@
         <v>779</v>
       </c>
       <c r="B779" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -10744,7 +10744,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781">
@@ -10752,7 +10752,7 @@
         <v>781</v>
       </c>
       <c r="B781" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -10768,7 +10768,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="784">
@@ -10776,7 +10776,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="785">
@@ -10800,7 +10800,7 @@
         <v>787</v>
       </c>
       <c r="B787" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="788">
@@ -10808,7 +10808,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="789">
@@ -10816,7 +10816,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="790">
@@ -10824,7 +10824,7 @@
         <v>790</v>
       </c>
       <c r="B790" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="791">
@@ -10832,7 +10832,7 @@
         <v>791</v>
       </c>
       <c r="B791" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="792">
@@ -10840,7 +10840,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="793">
@@ -10848,7 +10848,7 @@
         <v>793</v>
       </c>
       <c r="B793" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="794">
@@ -10856,7 +10856,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="795">
@@ -10944,7 +10944,7 @@
         <v>805</v>
       </c>
       <c r="B805" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="806">
@@ -10952,7 +10952,7 @@
         <v>806</v>
       </c>
       <c r="B806" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="807">
@@ -10960,7 +10960,7 @@
         <v>807</v>
       </c>
       <c r="B807" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="808">
@@ -10984,7 +10984,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="811">
@@ -10992,7 +10992,7 @@
         <v>811</v>
       </c>
       <c r="B811" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="812">
@@ -11000,7 +11000,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="813">
@@ -11040,7 +11040,7 @@
         <v>817</v>
       </c>
       <c r="B817" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="818">
@@ -11056,7 +11056,7 @@
         <v>819</v>
       </c>
       <c r="B819" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -11064,7 +11064,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821">
@@ -11072,7 +11072,7 @@
         <v>821</v>
       </c>
       <c r="B821" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -11080,7 +11080,7 @@
         <v>822</v>
       </c>
       <c r="B822" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -11104,7 +11104,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -11112,7 +11112,7 @@
         <v>826</v>
       </c>
       <c r="B826" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827">
@@ -11144,7 +11144,7 @@
         <v>830</v>
       </c>
       <c r="B830" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="831">
@@ -11192,7 +11192,7 @@
         <v>836</v>
       </c>
       <c r="B836" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="837">
@@ -11216,7 +11216,7 @@
         <v>839</v>
       </c>
       <c r="B839" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -11224,7 +11224,7 @@
         <v>840</v>
       </c>
       <c r="B840" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -11232,7 +11232,7 @@
         <v>841</v>
       </c>
       <c r="B841" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -11256,7 +11256,7 @@
         <v>844</v>
       </c>
       <c r="B844" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -11264,7 +11264,7 @@
         <v>845</v>
       </c>
       <c r="B845" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -11272,7 +11272,7 @@
         <v>846</v>
       </c>
       <c r="B846" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -11280,7 +11280,7 @@
         <v>847</v>
       </c>
       <c r="B847" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -11296,7 +11296,7 @@
         <v>849</v>
       </c>
       <c r="B849" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="850">
@@ -11336,7 +11336,7 @@
         <v>854</v>
       </c>
       <c r="B854" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="855">
@@ -11344,7 +11344,7 @@
         <v>855</v>
       </c>
       <c r="B855" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="856">
@@ -11352,7 +11352,7 @@
         <v>856</v>
       </c>
       <c r="B856" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="857">
@@ -11360,7 +11360,7 @@
         <v>857</v>
       </c>
       <c r="B857" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="858">
@@ -11368,7 +11368,7 @@
         <v>858</v>
       </c>
       <c r="B858" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="859">
@@ -11376,7 +11376,7 @@
         <v>859</v>
       </c>
       <c r="B859" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="860">
@@ -11384,7 +11384,7 @@
         <v>860</v>
       </c>
       <c r="B860" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="861">
@@ -11472,7 +11472,7 @@
         <v>871</v>
       </c>
       <c r="B871" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="872">
@@ -11480,7 +11480,7 @@
         <v>872</v>
       </c>
       <c r="B872" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="873">
@@ -11488,7 +11488,7 @@
         <v>873</v>
       </c>
       <c r="B873" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="874">
@@ -11496,7 +11496,7 @@
         <v>874</v>
       </c>
       <c r="B874" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="875">
@@ -11504,7 +11504,7 @@
         <v>875</v>
       </c>
       <c r="B875" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="876">
@@ -11512,7 +11512,7 @@
         <v>876</v>
       </c>
       <c r="B876" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="877">
@@ -11520,7 +11520,7 @@
         <v>877</v>
       </c>
       <c r="B877" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="878">
@@ -11528,7 +11528,7 @@
         <v>878</v>
       </c>
       <c r="B878" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="879">
@@ -11536,7 +11536,7 @@
         <v>879</v>
       </c>
       <c r="B879" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="880">
@@ -11584,7 +11584,7 @@
         <v>885</v>
       </c>
       <c r="B885" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -11592,7 +11592,7 @@
         <v>886</v>
       </c>
       <c r="B886" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887">
@@ -11600,7 +11600,7 @@
         <v>887</v>
       </c>
       <c r="B887" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888">
@@ -11608,7 +11608,7 @@
         <v>888</v>
       </c>
       <c r="B888" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -11632,7 +11632,7 @@
         <v>891</v>
       </c>
       <c r="B891" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -11640,7 +11640,7 @@
         <v>892</v>
       </c>
       <c r="B892" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893">
@@ -11648,7 +11648,7 @@
         <v>893</v>
       </c>
       <c r="B893" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -11672,7 +11672,7 @@
         <v>896</v>
       </c>
       <c r="B896" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="897">
@@ -11728,7 +11728,7 @@
         <v>903</v>
       </c>
       <c r="B903" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -11736,7 +11736,7 @@
         <v>904</v>
       </c>
       <c r="B904" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -11744,7 +11744,7 @@
         <v>905</v>
       </c>
       <c r="B905" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906">
@@ -11752,7 +11752,7 @@
         <v>906</v>
       </c>
       <c r="B906" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -11760,7 +11760,7 @@
         <v>907</v>
       </c>
       <c r="B907" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -11784,7 +11784,7 @@
         <v>910</v>
       </c>
       <c r="B910" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -11792,7 +11792,7 @@
         <v>911</v>
       </c>
       <c r="B911" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912">
@@ -11800,7 +11800,7 @@
         <v>912</v>
       </c>
       <c r="B912" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -11808,7 +11808,7 @@
         <v>913</v>
       </c>
       <c r="B913" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914">
@@ -11832,7 +11832,7 @@
         <v>916</v>
       </c>
       <c r="B916" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917">
@@ -11840,7 +11840,7 @@
         <v>917</v>
       </c>
       <c r="B917" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -11848,7 +11848,7 @@
         <v>918</v>
       </c>
       <c r="B918" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -11864,7 +11864,7 @@
         <v>920</v>
       </c>
       <c r="B920" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="921">
@@ -11872,7 +11872,7 @@
         <v>921</v>
       </c>
       <c r="B921" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="922">
@@ -11880,7 +11880,7 @@
         <v>922</v>
       </c>
       <c r="B922" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="923">
@@ -11896,7 +11896,7 @@
         <v>924</v>
       </c>
       <c r="B924" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -12080,7 +12080,7 @@
         <v>947</v>
       </c>
       <c r="B947" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948">
@@ -12120,7 +12120,7 @@
         <v>952</v>
       </c>
       <c r="B952" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953">
@@ -12128,7 +12128,7 @@
         <v>953</v>
       </c>
       <c r="B953" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -12136,7 +12136,7 @@
         <v>954</v>
       </c>
       <c r="B954" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
@@ -12160,7 +12160,7 @@
         <v>957</v>
       </c>
       <c r="B957" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -12168,7 +12168,7 @@
         <v>958</v>
       </c>
       <c r="B958" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959">
@@ -12176,7 +12176,7 @@
         <v>959</v>
       </c>
       <c r="B959" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -12184,7 +12184,7 @@
         <v>960</v>
       </c>
       <c r="B960" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961">
@@ -12192,7 +12192,7 @@
         <v>961</v>
       </c>
       <c r="B961" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -12208,7 +12208,7 @@
         <v>963</v>
       </c>
       <c r="B963" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -12216,7 +12216,7 @@
         <v>964</v>
       </c>
       <c r="B964" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -12224,7 +12224,7 @@
         <v>965</v>
       </c>
       <c r="B965" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -12232,7 +12232,7 @@
         <v>966</v>
       </c>
       <c r="B966" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -12240,7 +12240,7 @@
         <v>967</v>
       </c>
       <c r="B967" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -12256,7 +12256,7 @@
         <v>969</v>
       </c>
       <c r="B969" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -12264,7 +12264,7 @@
         <v>970</v>
       </c>
       <c r="B970" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -12272,7 +12272,7 @@
         <v>971</v>
       </c>
       <c r="B971" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972">
@@ -12280,7 +12280,7 @@
         <v>972</v>
       </c>
       <c r="B972" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973">
@@ -12288,7 +12288,7 @@
         <v>973</v>
       </c>
       <c r="B973" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974">
@@ -12312,7 +12312,7 @@
         <v>976</v>
       </c>
       <c r="B976" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977">
@@ -12320,7 +12320,7 @@
         <v>977</v>
       </c>
       <c r="B977" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978">
@@ -12328,7 +12328,7 @@
         <v>978</v>
       </c>
       <c r="B978" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979">
@@ -12336,7 +12336,7 @@
         <v>979</v>
       </c>
       <c r="B979" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980">
@@ -12360,7 +12360,7 @@
         <v>982</v>
       </c>
       <c r="B982" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983">
@@ -12368,7 +12368,7 @@
         <v>983</v>
       </c>
       <c r="B983" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -12376,7 +12376,7 @@
         <v>984</v>
       </c>
       <c r="B984" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -12384,7 +12384,7 @@
         <v>985</v>
       </c>
       <c r="B985" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -12416,7 +12416,7 @@
         <v>989</v>
       </c>
       <c r="B989" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990">
@@ -12424,7 +12424,7 @@
         <v>990</v>
       </c>
       <c r="B990" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991">
@@ -12432,7 +12432,7 @@
         <v>991</v>
       </c>
       <c r="B991" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992">
@@ -12464,7 +12464,7 @@
         <v>995</v>
       </c>
       <c r="B995" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="996">
@@ -12472,7 +12472,7 @@
         <v>996</v>
       </c>
       <c r="B996" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="997">
@@ -12480,7 +12480,7 @@
         <v>997</v>
       </c>
       <c r="B997" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="998">
@@ -12488,7 +12488,7 @@
         <v>998</v>
       </c>
       <c r="B998" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="999">
@@ -12496,7 +12496,7 @@
         <v>999</v>
       </c>
       <c r="B999" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1000">
@@ -12504,7 +12504,7 @@
         <v>1000</v>
       </c>
       <c r="B1000" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1001">
@@ -12512,7 +12512,7 @@
         <v>1001</v>
       </c>
       <c r="B1001" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1002">
@@ -12632,7 +12632,7 @@
         <v>1016</v>
       </c>
       <c r="B1016" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1017">
@@ -12640,7 +12640,7 @@
         <v>1017</v>
       </c>
       <c r="B1017" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1018">
@@ -12648,7 +12648,7 @@
         <v>1018</v>
       </c>
       <c r="B1018" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1019">
@@ -12672,7 +12672,7 @@
         <v>1021</v>
       </c>
       <c r="B1021" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1022">
@@ -12680,7 +12680,7 @@
         <v>1022</v>
       </c>
       <c r="B1022" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1023">
@@ -12688,7 +12688,7 @@
         <v>1023</v>
       </c>
       <c r="B1023" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1024">
@@ -12712,7 +12712,7 @@
         <v>1026</v>
       </c>
       <c r="B1026" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027">
@@ -12720,7 +12720,7 @@
         <v>1027</v>
       </c>
       <c r="B1027" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -12744,7 +12744,7 @@
         <v>1030</v>
       </c>
       <c r="B1030" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031">
@@ -12752,7 +12752,7 @@
         <v>1031</v>
       </c>
       <c r="B1031" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032">
@@ -12760,7 +12760,7 @@
         <v>1032</v>
       </c>
       <c r="B1032" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033">
@@ -12768,7 +12768,7 @@
         <v>1033</v>
       </c>
       <c r="B1033" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -12792,7 +12792,7 @@
         <v>1036</v>
       </c>
       <c r="B1036" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037">
@@ -12824,7 +12824,7 @@
         <v>1040</v>
       </c>
       <c r="B1040" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1041">
@@ -12832,7 +12832,7 @@
         <v>1041</v>
       </c>
       <c r="B1041" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1042">
@@ -12872,7 +12872,7 @@
         <v>1046</v>
       </c>
       <c r="B1046" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1047">
@@ -12880,7 +12880,7 @@
         <v>1047</v>
       </c>
       <c r="B1047" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1048">
@@ -12896,7 +12896,7 @@
         <v>1049</v>
       </c>
       <c r="B1049" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -12904,7 +12904,7 @@
         <v>1050</v>
       </c>
       <c r="B1050" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051">
@@ -12912,7 +12912,7 @@
         <v>1051</v>
       </c>
       <c r="B1051" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -12944,7 +12944,7 @@
         <v>1055</v>
       </c>
       <c r="B1055" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056">
@@ -12952,7 +12952,7 @@
         <v>1056</v>
       </c>
       <c r="B1056" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057">
@@ -12960,7 +12960,7 @@
         <v>1057</v>
       </c>
       <c r="B1057" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058">
@@ -12976,7 +12976,7 @@
         <v>1059</v>
       </c>
       <c r="B1059" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1060">
@@ -12984,7 +12984,7 @@
         <v>1060</v>
       </c>
       <c r="B1060" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1061">
@@ -12992,7 +12992,7 @@
         <v>1061</v>
       </c>
       <c r="B1061" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1062">
@@ -13000,7 +13000,7 @@
         <v>1062</v>
       </c>
       <c r="B1062" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1063">
@@ -13008,7 +13008,7 @@
         <v>1063</v>
       </c>
       <c r="B1063" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1064">
@@ -13016,7 +13016,7 @@
         <v>1064</v>
       </c>
       <c r="B1064" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1065">
@@ -13024,7 +13024,7 @@
         <v>1065</v>
       </c>
       <c r="B1065" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1066">
@@ -13032,7 +13032,7 @@
         <v>1066</v>
       </c>
       <c r="B1066" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1067">
@@ -13040,7 +13040,7 @@
         <v>1067</v>
       </c>
       <c r="B1067" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1068">
@@ -13048,7 +13048,7 @@
         <v>1068</v>
       </c>
       <c r="B1068" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1069">
@@ -13056,7 +13056,7 @@
         <v>1069</v>
       </c>
       <c r="B1069" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1070">
@@ -13064,7 +13064,7 @@
         <v>1070</v>
       </c>
       <c r="B1070" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1071">
@@ -13152,7 +13152,7 @@
         <v>1081</v>
       </c>
       <c r="B1081" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1082">
@@ -13160,7 +13160,7 @@
         <v>1082</v>
       </c>
       <c r="B1082" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1083">
@@ -13168,7 +13168,7 @@
         <v>1083</v>
       </c>
       <c r="B1083" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1084">
@@ -13176,7 +13176,7 @@
         <v>1084</v>
       </c>
       <c r="B1084" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1085">
@@ -13184,7 +13184,7 @@
         <v>1085</v>
       </c>
       <c r="B1085" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1086">
@@ -13192,7 +13192,7 @@
         <v>1086</v>
       </c>
       <c r="B1086" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1087">
@@ -13200,7 +13200,7 @@
         <v>1087</v>
       </c>
       <c r="B1087" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1088">
@@ -13208,7 +13208,7 @@
         <v>1088</v>
       </c>
       <c r="B1088" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1089">
@@ -13216,7 +13216,7 @@
         <v>1089</v>
       </c>
       <c r="B1089" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1090">
@@ -13224,7 +13224,7 @@
         <v>1090</v>
       </c>
       <c r="B1090" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1091">
@@ -13272,7 +13272,7 @@
         <v>1096</v>
       </c>
       <c r="B1096" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -13280,7 +13280,7 @@
         <v>1097</v>
       </c>
       <c r="B1097" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098">
@@ -13288,7 +13288,7 @@
         <v>1098</v>
       </c>
       <c r="B1098" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -13296,7 +13296,7 @@
         <v>1099</v>
       </c>
       <c r="B1099" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100">
@@ -13320,7 +13320,7 @@
         <v>1102</v>
       </c>
       <c r="B1102" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103">
@@ -13352,7 +13352,7 @@
         <v>1106</v>
       </c>
       <c r="B1106" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1107">
@@ -13360,7 +13360,7 @@
         <v>1107</v>
       </c>
       <c r="B1107" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1108">
@@ -13400,7 +13400,7 @@
         <v>1112</v>
       </c>
       <c r="B1112" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1113">
@@ -13408,7 +13408,7 @@
         <v>1113</v>
       </c>
       <c r="B1113" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1114">
@@ -13424,7 +13424,7 @@
         <v>1115</v>
       </c>
       <c r="B1115" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116">
@@ -13432,7 +13432,7 @@
         <v>1116</v>
       </c>
       <c r="B1116" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117">
@@ -13440,7 +13440,7 @@
         <v>1117</v>
       </c>
       <c r="B1117" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118">
@@ -13472,7 +13472,7 @@
         <v>1121</v>
       </c>
       <c r="B1121" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122">
@@ -13480,7 +13480,7 @@
         <v>1122</v>
       </c>
       <c r="B1122" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123">
@@ -13488,7 +13488,7 @@
         <v>1123</v>
       </c>
       <c r="B1123" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124">
@@ -13512,7 +13512,7 @@
         <v>1126</v>
       </c>
       <c r="B1126" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1127">
@@ -13520,7 +13520,7 @@
         <v>1127</v>
       </c>
       <c r="B1127" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1128">
@@ -13528,7 +13528,7 @@
         <v>1128</v>
       </c>
       <c r="B1128" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1129">
@@ -13536,7 +13536,7 @@
         <v>1129</v>
       </c>
       <c r="B1129" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1130">
@@ -13544,7 +13544,7 @@
         <v>1130</v>
       </c>
       <c r="B1130" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1131">
@@ -13552,7 +13552,7 @@
         <v>1131</v>
       </c>
       <c r="B1131" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1132">
@@ -13560,7 +13560,7 @@
         <v>1132</v>
       </c>
       <c r="B1132" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1133">
@@ -13568,7 +13568,7 @@
         <v>1133</v>
       </c>
       <c r="B1133" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1134">
@@ -13576,7 +13576,7 @@
         <v>1134</v>
       </c>
       <c r="B1134" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1135">
@@ -13696,7 +13696,7 @@
         <v>1149</v>
       </c>
       <c r="B1149" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1150">
@@ -13704,7 +13704,7 @@
         <v>1150</v>
       </c>
       <c r="B1150" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1151">
@@ -13712,7 +13712,7 @@
         <v>1151</v>
       </c>
       <c r="B1151" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1152">
@@ -13720,7 +13720,7 @@
         <v>1152</v>
       </c>
       <c r="B1152" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1153">
@@ -13728,7 +13728,7 @@
         <v>1153</v>
       </c>
       <c r="B1153" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1154">
@@ -13736,7 +13736,7 @@
         <v>1154</v>
       </c>
       <c r="B1154" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1155">
@@ -13744,7 +13744,7 @@
         <v>1155</v>
       </c>
       <c r="B1155" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1156">
@@ -13752,7 +13752,7 @@
         <v>1156</v>
       </c>
       <c r="B1156" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1157">
@@ -13760,7 +13760,7 @@
         <v>1157</v>
       </c>
       <c r="B1157" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158">
@@ -13808,7 +13808,7 @@
         <v>1163</v>
       </c>
       <c r="B1163" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164">
@@ -13816,7 +13816,7 @@
         <v>1164</v>
       </c>
       <c r="B1164" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165">
@@ -13824,7 +13824,7 @@
         <v>1165</v>
       </c>
       <c r="B1165" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166">
@@ -13856,7 +13856,7 @@
         <v>1169</v>
       </c>
       <c r="B1169" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170">
@@ -13864,7 +13864,7 @@
         <v>1170</v>
       </c>
       <c r="B1170" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171">
@@ -13872,7 +13872,7 @@
         <v>1171</v>
       </c>
       <c r="B1171" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172">
@@ -13904,7 +13904,7 @@
         <v>1175</v>
       </c>
       <c r="B1175" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176">
@@ -13912,7 +13912,7 @@
         <v>1176</v>
       </c>
       <c r="B1176" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177">
@@ -13920,7 +13920,7 @@
         <v>1177</v>
       </c>
       <c r="B1177" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
@@ -13952,7 +13952,7 @@
         <v>1181</v>
       </c>
       <c r="B1181" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -13960,7 +13960,7 @@
         <v>1182</v>
       </c>
       <c r="B1182" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183">
@@ -13968,7 +13968,7 @@
         <v>1183</v>
       </c>
       <c r="B1183" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184">
@@ -14000,7 +14000,7 @@
         <v>1187</v>
       </c>
       <c r="B1187" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188">
@@ -14008,7 +14008,7 @@
         <v>1188</v>
       </c>
       <c r="B1188" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189">
@@ -14016,7 +14016,7 @@
         <v>1189</v>
       </c>
       <c r="B1189" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190">
@@ -14344,7 +14344,7 @@
         <v>1230</v>
       </c>
       <c r="B1230" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231">
@@ -14384,7 +14384,7 @@
         <v>1235</v>
       </c>
       <c r="B1235" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236">
@@ -14392,7 +14392,7 @@
         <v>1236</v>
       </c>
       <c r="B1236" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -14400,7 +14400,7 @@
         <v>1237</v>
       </c>
       <c r="B1237" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238">
@@ -14432,7 +14432,7 @@
         <v>1241</v>
       </c>
       <c r="B1241" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242">
@@ -14440,7 +14440,7 @@
         <v>1242</v>
       </c>
       <c r="B1242" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243">
@@ -14448,7 +14448,7 @@
         <v>1243</v>
       </c>
       <c r="B1243" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244">
@@ -14488,7 +14488,7 @@
         <v>1248</v>
       </c>
       <c r="B1248" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249">
@@ -14496,7 +14496,7 @@
         <v>1249</v>
       </c>
       <c r="B1249" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250">
@@ -14520,7 +14520,7 @@
         <v>1252</v>
       </c>
       <c r="B1252" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1253">
@@ -14536,7 +14536,7 @@
         <v>1254</v>
       </c>
       <c r="B1254" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255">
@@ -14544,7 +14544,7 @@
         <v>1255</v>
       </c>
       <c r="B1255" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256">
@@ -14672,7 +14672,7 @@
         <v>1271</v>
       </c>
       <c r="B1271" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1272">
@@ -14680,7 +14680,7 @@
         <v>1272</v>
       </c>
       <c r="B1272" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1273">
@@ -14688,7 +14688,7 @@
         <v>1273</v>
       </c>
       <c r="B1273" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1274">
@@ -14696,7 +14696,7 @@
         <v>1274</v>
       </c>
       <c r="B1274" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1275">
@@ -14704,7 +14704,7 @@
         <v>1275</v>
       </c>
       <c r="B1275" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1276">
@@ -14712,7 +14712,7 @@
         <v>1276</v>
       </c>
       <c r="B1276" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1277">
@@ -14720,7 +14720,7 @@
         <v>1277</v>
       </c>
       <c r="B1277" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1278">
@@ -14840,7 +14840,7 @@
         <v>1292</v>
       </c>
       <c r="B1292" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1293">
@@ -14848,7 +14848,7 @@
         <v>1293</v>
       </c>
       <c r="B1293" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1294">
@@ -14856,7 +14856,7 @@
         <v>1294</v>
       </c>
       <c r="B1294" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1295">
@@ -14864,7 +14864,7 @@
         <v>1295</v>
       </c>
       <c r="B1295" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1296">
@@ -14872,7 +14872,7 @@
         <v>1296</v>
       </c>
       <c r="B1296" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1297">
@@ -14880,7 +14880,7 @@
         <v>1297</v>
       </c>
       <c r="B1297" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1298">
@@ -14888,7 +14888,7 @@
         <v>1298</v>
       </c>
       <c r="B1298" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1299">
@@ -14896,7 +14896,7 @@
         <v>1299</v>
       </c>
       <c r="B1299" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1300">
@@ -14904,7 +14904,7 @@
         <v>1300</v>
       </c>
       <c r="B1300" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1301">
@@ -14920,7 +14920,7 @@
         <v>1302</v>
       </c>
       <c r="B1302" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303">
@@ -14928,7 +14928,7 @@
         <v>1303</v>
       </c>
       <c r="B1303" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304">
@@ -14968,7 +14968,7 @@
         <v>1308</v>
       </c>
       <c r="B1308" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309">
@@ -14976,7 +14976,7 @@
         <v>1309</v>
       </c>
       <c r="B1309" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -15032,7 +15032,7 @@
         <v>1316</v>
       </c>
       <c r="B1316" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1317">
@@ -15040,7 +15040,7 @@
         <v>1317</v>
       </c>
       <c r="B1317" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1318">
@@ -15048,7 +15048,7 @@
         <v>1318</v>
       </c>
       <c r="B1318" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1319">
@@ -15056,7 +15056,7 @@
         <v>1319</v>
       </c>
       <c r="B1319" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1320">
@@ -15080,7 +15080,7 @@
         <v>1322</v>
       </c>
       <c r="B1322" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1323">
@@ -15088,7 +15088,7 @@
         <v>1323</v>
       </c>
       <c r="B1323" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1324">
@@ -15192,7 +15192,7 @@
         <v>1336</v>
       </c>
       <c r="B1336" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1337">
@@ -15200,7 +15200,7 @@
         <v>1337</v>
       </c>
       <c r="B1337" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1338">
@@ -15208,7 +15208,7 @@
         <v>1338</v>
       </c>
       <c r="B1338" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1339">
@@ -15216,7 +15216,7 @@
         <v>1339</v>
       </c>
       <c r="B1339" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1340">
@@ -15224,7 +15224,7 @@
         <v>1340</v>
       </c>
       <c r="B1340" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1341">
@@ -15232,7 +15232,7 @@
         <v>1341</v>
       </c>
       <c r="B1341" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1342">
@@ -15240,7 +15240,7 @@
         <v>1342</v>
       </c>
       <c r="B1342" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1343">
@@ -15248,7 +15248,7 @@
         <v>1343</v>
       </c>
       <c r="B1343" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1344">
@@ -15256,7 +15256,7 @@
         <v>1344</v>
       </c>
       <c r="B1344" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1345">
@@ -15264,7 +15264,7 @@
         <v>1345</v>
       </c>
       <c r="B1345" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1346">
@@ -15368,7 +15368,7 @@
         <v>1358</v>
       </c>
       <c r="B1358" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1359">
@@ -15376,7 +15376,7 @@
         <v>1359</v>
       </c>
       <c r="B1359" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1360">
@@ -15384,7 +15384,7 @@
         <v>1360</v>
       </c>
       <c r="B1360" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1361">
@@ -15392,7 +15392,7 @@
         <v>1361</v>
       </c>
       <c r="B1361" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1362">
@@ -15400,7 +15400,7 @@
         <v>1362</v>
       </c>
       <c r="B1362" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1363">
@@ -15408,7 +15408,7 @@
         <v>1363</v>
       </c>
       <c r="B1363" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1364">
@@ -15416,7 +15416,7 @@
         <v>1364</v>
       </c>
       <c r="B1364" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1365">
@@ -15424,7 +15424,7 @@
         <v>1365</v>
       </c>
       <c r="B1365" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1366">
@@ -15432,7 +15432,7 @@
         <v>1366</v>
       </c>
       <c r="B1366" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1367">
@@ -15504,7 +15504,7 @@
         <v>1375</v>
       </c>
       <c r="B1375" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1376">
@@ -15560,7 +15560,7 @@
         <v>1382</v>
       </c>
       <c r="B1382" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1383">
@@ -15568,7 +15568,7 @@
         <v>1383</v>
       </c>
       <c r="B1383" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1384">
@@ -15576,7 +15576,7 @@
         <v>1384</v>
       </c>
       <c r="B1384" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1385">
@@ -15584,7 +15584,7 @@
         <v>1385</v>
       </c>
       <c r="B1385" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1386">
